--- a/data/trans_dic/P57_AC_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P57_AC_R-Provincia-trans_dic.xlsx
@@ -673,7 +673,7 @@
         <v>0.8197292670271038</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.5471095963326416</v>
+        <v>0.5471095963326417</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0.8985047672219123</v>
@@ -685,7 +685,7 @@
         <v>0.8326412675838871</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>0.6006551138201599</v>
+        <v>0.60065511382016</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>0.8494510326413438</v>
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.749236405155982</v>
+        <v>0.7518485364635243</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.6723733865944573</v>
+        <v>0.6725536012071778</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.7675844154255308</v>
+        <v>0.7670715980533166</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.4831668900465892</v>
+        <v>0.4870041554855703</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.8579579759376154</v>
+        <v>0.8574417074098228</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.7614863154094278</v>
+        <v>0.767568384750289</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.7856109178251249</v>
+        <v>0.7828438822886619</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.5555322702527955</v>
+        <v>0.5513481384517434</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.819561214763151</v>
+        <v>0.8169397317397654</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.7373812038250368</v>
+        <v>0.7324554839137766</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.7897841256182186</v>
+        <v>0.7899321995482708</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.5356335188553329</v>
+        <v>0.533092256917346</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.8417934527189445</v>
+        <v>0.8457297668945931</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.7831287859184606</v>
+        <v>0.781029322172059</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.865806918743836</v>
+        <v>0.8645342770650072</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.6034095783955908</v>
+        <v>0.605747688690738</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.930250264439838</v>
+        <v>0.9304393400829493</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.8589967359524879</v>
+        <v>0.8595804519861224</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.8749283333444359</v>
+        <v>0.87758077058275</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.6462703720652334</v>
+        <v>0.646226107626259</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.8786556946999622</v>
+        <v>0.8779997649423923</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.8092873382635886</v>
+        <v>0.8088368409907091</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.8569960995402434</v>
+        <v>0.8560120766126492</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.610944239073049</v>
+        <v>0.609096749704336</v>
       </c>
     </row>
     <row r="7">
@@ -809,7 +809,7 @@
         <v>0.7996076380955666</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.6330667598241033</v>
+        <v>0.6330667598241032</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0.6626615848827186</v>
@@ -833,7 +833,7 @@
         <v>0.8030008756381816</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>0.6039943029383401</v>
+        <v>0.60399430293834</v>
       </c>
     </row>
     <row r="8">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.5381619393920504</v>
+        <v>0.5433549265513895</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.5063093495916136</v>
+        <v>0.5091164271634783</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.7594578002283225</v>
+        <v>0.7591721489071821</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.5794161086892177</v>
+        <v>0.5732091190070249</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.6269111122107762</v>
+        <v>0.6260161482277734</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.5292668241770934</v>
+        <v>0.5276576540690143</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.7673917193356616</v>
+        <v>0.7734297293102058</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.5357706915908022</v>
+        <v>0.5395528809379553</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.5942263259575337</v>
+        <v>0.5932155500421412</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.5277406026289087</v>
+        <v>0.52980288386365</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.7765750992300299</v>
+        <v>0.7767098844374491</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.5677403086655912</v>
+        <v>0.5694979664805343</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.6273564773582747</v>
+        <v>0.6328181333285721</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.5954962035957714</v>
+        <v>0.6007081970623511</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.8335397309721132</v>
+        <v>0.8324155889334213</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.682081753788316</v>
+        <v>0.6785322430507332</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.7100519513842534</v>
+        <v>0.7034381822418394</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.6203434408767327</v>
+        <v>0.6197333012251895</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.8349684996059384</v>
+        <v>0.8403812307338437</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.6140615107497426</v>
+        <v>0.616945379674993</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.6573111196657611</v>
+        <v>0.6533000110884468</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.5963010247719216</v>
+        <v>0.5936091114587461</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.8271448990716193</v>
+        <v>0.826124200612531</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.6370723741163944</v>
+        <v>0.6389105124616419</v>
       </c>
     </row>
     <row r="10">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.5680308463813062</v>
+        <v>0.5584250464737481</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.5891297046323469</v>
+        <v>0.5855018620996791</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.6621642240323998</v>
+        <v>0.6634758303182557</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.4032571240112043</v>
+        <v>0.4038283842832671</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.5155690166196135</v>
+        <v>0.5130452214777493</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.6818333545094156</v>
+        <v>0.6784138873276915</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.7596332111588205</v>
+        <v>0.7610652027163234</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.4712619121960615</v>
+        <v>0.4721316800370291</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.5535953369243068</v>
+        <v>0.5442655252773818</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.6569134704209401</v>
+        <v>0.6558411114905429</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.7256990241537108</v>
+        <v>0.7256363471143257</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.4559672284413521</v>
+        <v>0.4554452840321147</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.6746699018630639</v>
+        <v>0.6737911987477536</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.6951871081820655</v>
+        <v>0.7008182243721535</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.7622830999110496</v>
+        <v>0.7622582338998324</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.5121462125789362</v>
+        <v>0.51144204936393</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.6263359386486423</v>
+        <v>0.6234836321788064</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.7815934251324228</v>
+        <v>0.7829734802665647</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.8476983502396944</v>
+        <v>0.8463665746434963</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.5609356261488724</v>
+        <v>0.5651595957630752</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.6304522162141216</v>
+        <v>0.6267524122304808</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.7280156020713334</v>
+        <v>0.7289606327391442</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.7912722868217621</v>
+        <v>0.7911060368412003</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.5238492813473268</v>
+        <v>0.5263795814279246</v>
       </c>
     </row>
     <row r="13">
@@ -1081,7 +1081,7 @@
         <v>0.459944266511445</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.3312138965056633</v>
+        <v>0.3312138965056632</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.6952011570345131</v>
@@ -1093,7 +1093,7 @@
         <v>0.5459175505944954</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>0.3667079779606837</v>
+        <v>0.3667079779606836</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>0.7030447595537033</v>
@@ -1105,7 +1105,7 @@
         <v>0.5039173027831284</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.3499721427498458</v>
+        <v>0.3499721427498459</v>
       </c>
     </row>
     <row r="14">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.6630658047326069</v>
+        <v>0.6617970863101338</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.4645946928268964</v>
+        <v>0.4611798046101316</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.4075998023735569</v>
+        <v>0.403538953113822</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.2704564112985393</v>
+        <v>0.2669160069477053</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.6499998656615481</v>
+        <v>0.6512154468993904</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.5638780902503402</v>
+        <v>0.5602144475780092</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.49769389762324</v>
+        <v>0.4946223674536124</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.3241294435475425</v>
+        <v>0.3226718083123681</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.6681644384459743</v>
+        <v>0.6686540881668604</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.5294658046285271</v>
+        <v>0.5288731818785436</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.4676983737118378</v>
+        <v>0.4646124936719939</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.3146115469412826</v>
+        <v>0.3137060440390937</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.756712553750834</v>
+        <v>0.7548910008586367</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.5703123089444512</v>
+        <v>0.5761198835625906</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.5150664374195071</v>
+        <v>0.5165695703306833</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.3933574103670516</v>
+        <v>0.3987395375393299</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.7374063618664445</v>
+        <v>0.7379155234819504</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.6577755605473619</v>
+        <v>0.659609488955665</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.6031218848804848</v>
+        <v>0.595310246561885</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.4126025500399384</v>
+        <v>0.4137415470022326</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.7340253992523613</v>
+        <v>0.7365909666975823</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.6053411792094167</v>
+        <v>0.6029631205052944</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.5451908667371687</v>
+        <v>0.5395564516406712</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.3872476192486113</v>
+        <v>0.3864498493496497</v>
       </c>
     </row>
     <row r="16">
@@ -1229,7 +1229,7 @@
         <v>0.8734835449046832</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>0.9280191283072242</v>
+        <v>0.9280191283072241</v>
       </c>
       <c r="K16" s="5" t="n">
         <v>0.8277300857808552</v>
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.7260482720724775</v>
+        <v>0.7301292429994396</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.4617289482624248</v>
+        <v>0.4684087430125621</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.8116905851676122</v>
+        <v>0.800947471406018</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.8693858866869566</v>
+        <v>0.864292770217138</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.8107168714141985</v>
+        <v>0.804701327277398</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.6568237862916033</v>
+        <v>0.6523498457522862</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.8234321821274728</v>
+        <v>0.8329007589045002</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.8900193009680436</v>
+        <v>0.8938440720357009</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.7874998098367406</v>
+        <v>0.7899551316154652</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.5751899734699588</v>
+        <v>0.5809009884343677</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.8324659452404143</v>
+        <v>0.8323392492757772</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.8947315934554896</v>
+        <v>0.8929276352188138</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.8494469228960859</v>
+        <v>0.8469515530373503</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.609190560526529</v>
+        <v>0.6078930356684407</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.907207511350519</v>
+        <v>0.9029275226369793</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.951461049591792</v>
+        <v>0.9509984600571316</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.9026498834672533</v>
+        <v>0.9011207701548409</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.7734778180798931</v>
+        <v>0.7731982386509777</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.9146227482059928</v>
+        <v>0.9112060645230533</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.9505375865450864</v>
+        <v>0.9506006033747767</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.865079258064414</v>
+        <v>0.8586795460731301</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.6735281174024521</v>
+        <v>0.6754983925253497</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.8980306094172886</v>
+        <v>0.8972578399476074</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.9426316321120415</v>
+        <v>0.9449408963324711</v>
       </c>
     </row>
     <row r="19">
@@ -1377,7 +1377,7 @@
         <v>0.7715732914557371</v>
       </c>
       <c r="N19" s="5" t="n">
-        <v>0.4072658623611496</v>
+        <v>0.4072658623611495</v>
       </c>
     </row>
     <row r="20">
@@ -1388,40 +1388,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.6420828951008477</v>
+        <v>0.6351403641539293</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.548299622574882</v>
+        <v>0.5515955243736121</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.7195422538030828</v>
+        <v>0.7206649366456659</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.3536872258068777</v>
+        <v>0.360840080792214</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.682057355953098</v>
+        <v>0.6875169951959879</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.7092622475909919</v>
+        <v>0.7053338634165361</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.7212463493150115</v>
+        <v>0.7163425395258328</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.3662633963799919</v>
+        <v>0.3622339977866815</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.6775778669286974</v>
+        <v>0.6763474042166009</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.6470197537553805</v>
+        <v>0.6483020156957644</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.7357005509047607</v>
+        <v>0.7344651107256908</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.3744512978757101</v>
+        <v>0.3731934051086589</v>
       </c>
     </row>
     <row r="21">
@@ -1432,40 +1432,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.7520181016461426</v>
+        <v>0.7467885399103855</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.6705676916844959</v>
+        <v>0.6766882173509234</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.8235400680988673</v>
+        <v>0.8240862636019685</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.4632955559925158</v>
+        <v>0.4562166947791459</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.7851187963835249</v>
+        <v>0.7896442381097803</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.8091798656203766</v>
+        <v>0.8106561637726001</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.8186297800314124</v>
+        <v>0.8207438840304712</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.4564516811590423</v>
+        <v>0.4532643832585602</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.7558394324199466</v>
+        <v>0.7520672378450307</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.7268852614764959</v>
+        <v>0.7342547163198945</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.8076656337985513</v>
+        <v>0.807588897636871</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.4431698953199091</v>
+        <v>0.4437029966389637</v>
       </c>
     </row>
     <row r="22">
@@ -1501,7 +1501,7 @@
         <v>0.8550810042167879</v>
       </c>
       <c r="J22" s="5" t="n">
-        <v>0.6388987889677075</v>
+        <v>0.6388987889677076</v>
       </c>
       <c r="K22" s="5" t="n">
         <v>0.5069319663691408</v>
@@ -1524,40 +1524,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.4798844064536134</v>
+        <v>0.4796222394909912</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.5599312413226929</v>
+        <v>0.5598562730975122</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.7897822664158959</v>
+        <v>0.7838411045846176</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.5855750741137488</v>
+        <v>0.5849423791036398</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.4505193778076651</v>
+        <v>0.4506489941189779</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.6548461057836336</v>
+        <v>0.6582112070869149</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.8255378759279869</v>
+        <v>0.8269424250661549</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.6043649938310873</v>
+        <v>0.6029153439871938</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.4781978635985514</v>
+        <v>0.4796947467787416</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.6208487977314828</v>
+        <v>0.6209993799334331</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.8180630955660604</v>
+        <v>0.8176314002404403</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.6086885153988755</v>
+        <v>0.607891095270586</v>
       </c>
     </row>
     <row r="24">
@@ -1568,40 +1568,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.5653487044429207</v>
+        <v>0.5634290136888147</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.6386758293494809</v>
+        <v>0.6400223904783318</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.8511851122776236</v>
+        <v>0.8500882160382534</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.6724420504410578</v>
+        <v>0.6678675055196557</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.5292507442636848</v>
+        <v>0.5298899687175505</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.7268057091151532</v>
+        <v>0.729665477479537</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.8799894826453113</v>
+        <v>0.8822898047753071</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.6699242458204773</v>
+        <v>0.6718857582790484</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.5339631884095554</v>
+        <v>0.5336369576959695</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.6751894123802145</v>
+        <v>0.6741571571643095</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.8572162402605269</v>
+        <v>0.8582471442513597</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.6608817846055398</v>
+        <v>0.6629954924498903</v>
       </c>
     </row>
     <row r="25">
@@ -1625,7 +1625,7 @@
         <v>0.9227349917603864</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>0.8462630326143872</v>
+        <v>0.8462630326143873</v>
       </c>
       <c r="G25" s="5" t="n">
         <v>0.8626298204400328</v>
@@ -1660,40 +1660,40 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.7687691604467669</v>
+        <v>0.7691855150179882</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.8693636150169286</v>
+        <v>0.8701780089825678</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.9013003538754982</v>
+        <v>0.9004560374869276</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.8159498767146395</v>
+        <v>0.8198330547299278</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.835270583137331</v>
+        <v>0.8367266281441793</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.8616717431820863</v>
+        <v>0.862229415280193</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.9142673456209061</v>
+        <v>0.9130929909068054</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.8501953397532173</v>
+        <v>0.8507039320895926</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.8128259963679397</v>
+        <v>0.8115176506392832</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>0.8737169018039039</v>
+        <v>0.8729127922405192</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>0.9146003357404932</v>
+        <v>0.9154041087048191</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>0.8404657307618533</v>
+        <v>0.8415647115000917</v>
       </c>
     </row>
     <row r="27">
@@ -1704,40 +1704,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.8300722634529272</v>
+        <v>0.8292001398343068</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.9132859981048901</v>
+        <v>0.914244532921488</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.940039784360541</v>
+        <v>0.9391854610109927</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.8709234717645912</v>
+        <v>0.8713849535469157</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.8870856562631688</v>
+        <v>0.884040215045898</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.9102856827865624</v>
+        <v>0.9064758874054</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.9504473612415536</v>
+        <v>0.9495935988254628</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.8910996121709976</v>
+        <v>0.8938214783700239</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.8497556116588498</v>
+        <v>0.8490613498018715</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>0.905588251091349</v>
+        <v>0.9047673127024654</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>0.9412615257300047</v>
+        <v>0.9402482544174245</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>0.8762858031517693</v>
+        <v>0.8770733810397051</v>
       </c>
     </row>
     <row r="28">
@@ -1796,40 +1796,40 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.6636245870597266</v>
+        <v>0.6646153448151532</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.6469209314217675</v>
+        <v>0.6473233637953443</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.7769545681203515</v>
+        <v>0.7760277738373536</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>0.6069750660154467</v>
+        <v>0.6064186695381758</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>0.6919228404733847</v>
+        <v>0.6936585122537485</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>0.7172201763719905</v>
+        <v>0.716429973258249</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>0.8087303392100396</v>
+        <v>0.8072113083217991</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>0.6246444607625776</v>
+        <v>0.6240067219314426</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>0.6817929174416216</v>
+        <v>0.6824295620488862</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>0.6868419813374518</v>
+        <v>0.6867985059817573</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>0.7967682503774239</v>
+        <v>0.7964385587286492</v>
       </c>
       <c r="N29" s="5" t="n">
-        <v>0.6201313511070952</v>
+        <v>0.6199207425535092</v>
       </c>
     </row>
     <row r="30">
@@ -1840,40 +1840,40 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.6981465982953924</v>
+        <v>0.6967266276633581</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.6804059993119072</v>
+        <v>0.6807293653718098</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.8046621778443624</v>
+        <v>0.8045098409582538</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>0.6425681208613346</v>
+        <v>0.6436184362420539</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>0.7232654410224321</v>
+        <v>0.7230161348038332</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>0.7481793879751446</v>
+        <v>0.7473851490669549</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>0.8345687847216432</v>
+        <v>0.8344963250272823</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>0.651980102528775</v>
+        <v>0.6536498487553185</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>0.7048380959025032</v>
+        <v>0.7055946611859762</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>0.7102753815724352</v>
+        <v>0.7095227480948914</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>0.8167482276643768</v>
+        <v>0.8154826930405072</v>
       </c>
       <c r="N30" s="5" t="n">
-        <v>0.6436070054781564</v>
+        <v>0.6436609666527274</v>
       </c>
     </row>
     <row r="31">
@@ -2148,40 +2148,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>204549</v>
+        <v>205262</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>195129</v>
+        <v>195182</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>220160</v>
+        <v>220013</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>153694</v>
+        <v>154915</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>223788</v>
+        <v>223653</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>215690</v>
+        <v>217413</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>224521</v>
+        <v>223731</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>173715</v>
+        <v>172407</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>437521</v>
+        <v>436122</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>422858</v>
+        <v>420033</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>452241</v>
+        <v>452326</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>337877</v>
+        <v>336274</v>
       </c>
     </row>
     <row r="7">
@@ -2192,40 +2192,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>229818</v>
+        <v>230893</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>227272</v>
+        <v>226663</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>248332</v>
+        <v>247967</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>191943</v>
+        <v>192687</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>242645</v>
+        <v>242694</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>243310</v>
+        <v>243475</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>250048</v>
+        <v>250806</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>202089</v>
+        <v>202076</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>469069</v>
+        <v>468718</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>464093</v>
+        <v>463835</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>490728</v>
+        <v>490164</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>385382</v>
+        <v>384217</v>
       </c>
     </row>
     <row r="8">
@@ -2328,40 +2328,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>264771</v>
+        <v>267326</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>254962</v>
+        <v>256376</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>378594</v>
+        <v>378451</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>304165</v>
+        <v>300907</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>315931</v>
+        <v>315480</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>276579</v>
+        <v>275738</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>398002</v>
+        <v>401134</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>291764</v>
+        <v>293824</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>591814</v>
+        <v>590807</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>541536</v>
+        <v>543652</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>789892</v>
+        <v>790029</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>607210</v>
+        <v>609089</v>
       </c>
     </row>
     <row r="11">
@@ -2372,40 +2372,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>308654</v>
+        <v>311341</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>299874</v>
+        <v>302499</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>415524</v>
+        <v>414963</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>358059</v>
+        <v>356196</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>357830</v>
+        <v>354497</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>324173</v>
+        <v>323854</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>433051</v>
+        <v>435858</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>334399</v>
+        <v>335969</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>654642</v>
+        <v>650648</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>611888</v>
+        <v>609126</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>841329</v>
+        <v>840291</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>681362</v>
+        <v>683328</v>
       </c>
     </row>
     <row r="12">
@@ -2508,40 +2508,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>181114</v>
+        <v>178052</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>190300</v>
+        <v>189128</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>210370</v>
+        <v>210786</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>123826</v>
+        <v>124002</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>172928</v>
+        <v>172082</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>231847</v>
+        <v>230684</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>253528</v>
+        <v>254006</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>159026</v>
+        <v>159320</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>362194</v>
+        <v>356090</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>435568</v>
+        <v>434857</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>472757</v>
+        <v>472716</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>293877</v>
+        <v>293540</v>
       </c>
     </row>
     <row r="15">
@@ -2552,40 +2552,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>215116</v>
+        <v>214836</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>224559</v>
+        <v>226378</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>242177</v>
+        <v>242169</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>157262</v>
+        <v>157046</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>210081</v>
+        <v>209124</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>265768</v>
+        <v>266238</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>282920</v>
+        <v>282476</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>189287</v>
+        <v>190712</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>412478</v>
+        <v>410058</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>482713</v>
+        <v>483340</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>515474</v>
+        <v>515366</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>337628</v>
+        <v>339258</v>
       </c>
     </row>
     <row r="16">
@@ -2688,40 +2688,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>237822</v>
+        <v>237367</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>172227</v>
+        <v>170961</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>149972</v>
+        <v>148478</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>99236</v>
+        <v>97937</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>241446</v>
+        <v>241898</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>218203</v>
+        <v>216786</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>191723</v>
+        <v>190539</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>133301</v>
+        <v>132701</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>487845</v>
+        <v>488202</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>401162</v>
+        <v>400713</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>352252</v>
+        <v>349928</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>244823</v>
+        <v>244119</v>
       </c>
     </row>
     <row r="19">
@@ -2732,40 +2732,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>271411</v>
+        <v>270758</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>211417</v>
+        <v>213570</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>189513</v>
+        <v>190066</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>144330</v>
+        <v>146305</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>273914</v>
+        <v>274103</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>254539</v>
+        <v>255248</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>232336</v>
+        <v>229327</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>169686</v>
+        <v>170155</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>535932</v>
+        <v>537805</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>458651</v>
+        <v>456849</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>410616</v>
+        <v>406373</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>301347</v>
+        <v>300726</v>
       </c>
     </row>
     <row r="20">
@@ -2868,40 +2868,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>147611</v>
+        <v>148441</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>97703</v>
+        <v>99117</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>171446</v>
+        <v>169177</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>178163</v>
+        <v>177120</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>168360</v>
+        <v>167111</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>143646</v>
+        <v>142668</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>179992</v>
+        <v>182061</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>201877</v>
+        <v>202744</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>323644</v>
+        <v>324653</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>247505</v>
+        <v>249963</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>357801</v>
+        <v>357746</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>386303</v>
+        <v>385524</v>
       </c>
     </row>
     <row r="23">
@@ -2912,40 +2912,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>172699</v>
+        <v>172192</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>128907</v>
+        <v>128632</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>191621</v>
+        <v>190717</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>194983</v>
+        <v>194888</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>187451</v>
+        <v>187134</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>169158</v>
+        <v>169097</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>199925</v>
+        <v>199178</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>215604</v>
+        <v>215618</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>355527</v>
+        <v>352897</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>289820</v>
+        <v>290668</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>385981</v>
+        <v>385649</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>406984</v>
+        <v>407981</v>
       </c>
     </row>
     <row r="24">
@@ -3048,40 +3048,40 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>173883</v>
+        <v>172003</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>147952</v>
+        <v>148841</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>189328</v>
+        <v>189624</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>95577</v>
+        <v>97510</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>189710</v>
+        <v>191229</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>197835</v>
+        <v>196739</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>195585</v>
+        <v>194255</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>96452</v>
+        <v>95391</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>371960</v>
+        <v>371284</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>355064</v>
+        <v>355767</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>393084</v>
+        <v>392424</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>199796</v>
+        <v>199125</v>
       </c>
     </row>
     <row r="27">
@@ -3092,40 +3092,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>203655</v>
+        <v>202239</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>180944</v>
+        <v>182596</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>216692</v>
+        <v>216836</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>125196</v>
+        <v>123283</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>218376</v>
+        <v>219635</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>225705</v>
+        <v>226117</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>221993</v>
+        <v>222566</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>120202</v>
+        <v>119363</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>414922</v>
+        <v>412851</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>398891</v>
+        <v>402935</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>431535</v>
+        <v>431494</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>236462</v>
+        <v>236747</v>
       </c>
     </row>
     <row r="28">
@@ -3228,40 +3228,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>295142</v>
+        <v>294981</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>366689</v>
+        <v>366640</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>515771</v>
+        <v>511891</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>415207</v>
+        <v>414758</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>287089</v>
+        <v>287171</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>449230</v>
+        <v>451539</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>564992</v>
+        <v>565953</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>457388</v>
+        <v>456291</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>598831</v>
+        <v>600705</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>832491</v>
+        <v>832693</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>1094116</v>
+        <v>1093539</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>892256</v>
+        <v>891087</v>
       </c>
     </row>
     <row r="31">
@@ -3272,40 +3272,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>347705</v>
+        <v>346524</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>418258</v>
+        <v>419140</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>555871</v>
+        <v>555154</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>476800</v>
+        <v>473557</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>337259</v>
+        <v>337667</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>498595</v>
+        <v>500557</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>602258</v>
+        <v>603832</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>507004</v>
+        <v>508489</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>668664</v>
+        <v>668255</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>905356</v>
+        <v>903972</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>1146481</v>
+        <v>1147860</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>968764</v>
+        <v>971863</v>
       </c>
     </row>
     <row r="32">
@@ -3408,40 +3408,40 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>570615</v>
+        <v>570924</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>673905</v>
+        <v>674537</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>701737</v>
+        <v>701080</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>648768</v>
+        <v>651856</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>653482</v>
+        <v>654621</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>708097</v>
+        <v>708555</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>753463</v>
+        <v>752495</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>705122</v>
+        <v>705544</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>1239239</v>
+        <v>1237244</v>
       </c>
       <c r="L34" s="6" t="n">
-        <v>1395275</v>
+        <v>1393991</v>
       </c>
       <c r="M34" s="6" t="n">
-        <v>1465830</v>
+        <v>1467118</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>1365315</v>
+        <v>1367100</v>
       </c>
     </row>
     <row r="35">
@@ -3452,40 +3452,40 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>616117</v>
+        <v>615470</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>707953</v>
+        <v>708696</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>731899</v>
+        <v>731234</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>692478</v>
+        <v>692845</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>694020</v>
+        <v>691638</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>748046</v>
+        <v>744916</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>783280</v>
+        <v>782576</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>739047</v>
+        <v>741304</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>1295542</v>
+        <v>1294483</v>
       </c>
       <c r="L35" s="6" t="n">
-        <v>1446172</v>
+        <v>1444861</v>
       </c>
       <c r="M35" s="6" t="n">
-        <v>1508560</v>
+        <v>1506936</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>1423504</v>
+        <v>1424783</v>
       </c>
     </row>
     <row r="36">
@@ -3588,40 +3588,40 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>2172647</v>
+        <v>2175890</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>2198882</v>
+        <v>2200250</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>2623735</v>
+        <v>2620605</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>2122202</v>
+        <v>2120256</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>2336669</v>
+        <v>2342531</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>2537691</v>
+        <v>2534895</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>2848089</v>
+        <v>2842740</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>2300136</v>
+        <v>2297788</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>4534588</v>
+        <v>4538822</v>
       </c>
       <c r="L38" s="6" t="n">
-        <v>4764780</v>
+        <v>4764479</v>
       </c>
       <c r="M38" s="6" t="n">
-        <v>5496609</v>
+        <v>5494334</v>
       </c>
       <c r="N38" s="6" t="n">
-        <v>4451718</v>
+        <v>4450206</v>
       </c>
     </row>
     <row r="39">
@@ -3632,40 +3632,40 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>2285668</v>
+        <v>2281020</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>2312698</v>
+        <v>2313797</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>2717302</v>
+        <v>2716788</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>2246648</v>
+        <v>2250320</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>2442515</v>
+        <v>2441673</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>2647232</v>
+        <v>2644422</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>2939084</v>
+        <v>2938829</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>2400795</v>
+        <v>2406943</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>4687861</v>
+        <v>4692892</v>
       </c>
       <c r="L39" s="6" t="n">
-        <v>4927343</v>
+        <v>4922122</v>
       </c>
       <c r="M39" s="6" t="n">
-        <v>5634443</v>
+        <v>5625713</v>
       </c>
       <c r="N39" s="6" t="n">
-        <v>4620242</v>
+        <v>4620630</v>
       </c>
     </row>
     <row r="40">
